--- a/Team-Data/2007-08/1-13-2007-08.xlsx
+++ b/Team-Data/2007-08/1-13-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J2" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>0.317</v>
+        <v>0.311</v>
       </c>
       <c r="O2" t="n">
         <v>22.3</v>
       </c>
       <c r="P2" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="U2" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V2" t="n">
         <v>15.6</v>
@@ -726,37 +793,37 @@
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y2" t="n">
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -783,22 +850,22 @@
         <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -816,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -953,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN3" t="n">
         <v>5</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -974,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -992,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1126,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1138,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>16</v>
@@ -1171,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1180,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.412</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
         <v>85.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.419</v>
       </c>
       <c r="L5" t="n">
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.758</v>
@@ -1257,40 +1324,40 @@
         <v>14.2</v>
       </c>
       <c r="S5" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
         <v>21.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1299,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1317,16 +1384,16 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>14</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,16 +1411,16 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>13</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1502,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1544,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1696,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>10</v>
@@ -1705,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,13 +1781,13 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.737</v>
+        <v>0.757</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
         <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.769</v>
@@ -1985,19 +2052,19 @@
         <v>11.4</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T9" t="n">
         <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.2</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,25 +2097,25 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2066,19 +2133,19 @@
         <v>22</v>
       </c>
       <c r="AT9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
@@ -2087,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.579</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,37 +2207,37 @@
         <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>89.2</v>
+        <v>89</v>
       </c>
       <c r="K10" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="O10" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P10" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.737</v>
+        <v>0.742</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
         <v>22.8</v>
@@ -2179,13 +2246,13 @@
         <v>13.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z10" t="n">
         <v>23.2</v>
@@ -2197,13 +2264,13 @@
         <v>108.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,16 +2297,16 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2248,25 +2315,25 @@
         <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.526</v>
+        <v>0.541</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J11" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O11" t="n">
         <v>16.4</v>
@@ -2343,19 +2410,19 @@
         <v>22.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S11" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
         <v>15.1</v>
@@ -2367,7 +2434,7 @@
         <v>5.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z11" t="n">
         <v>19.9</v>
@@ -2376,34 +2443,34 @@
         <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2439,22 +2506,22 @@
         <v>12</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>3</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.436</v>
+        <v>0.447</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,10 +2571,10 @@
         <v>38.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.59999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>8.300000000000001</v>
@@ -2525,34 +2592,34 @@
         <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T12" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA12" t="n">
         <v>21.8</v>
@@ -2564,19 +2631,19 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2591,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="AM12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
         <v>12</v>
@@ -2606,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2615,19 +2682,19 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2776,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2794,22 +2861,22 @@
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY13" t="n">
         <v>23</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>22</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.694</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2871,25 +2938,25 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P14" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
@@ -2898,16 +2965,16 @@
         <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
@@ -2916,19 +2983,19 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,19 +3049,19 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.27</v>
+        <v>0.278</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>80.7</v>
+        <v>80.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
         <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W15" t="n">
         <v>5.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
@@ -3101,34 +3168,34 @@
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
         <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
@@ -3140,16 +3207,16 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3158,16 +3225,16 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>28</v>
@@ -3349,7 +3416,7 @@
         <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>-5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
         <v>21</v>
       </c>
-      <c r="AG17" t="n">
-        <v>20</v>
-      </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>14</v>
@@ -3510,19 +3577,19 @@
         <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3537,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3686,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,19 +3768,19 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3883,16 +3950,16 @@
         <v>17</v>
       </c>
       <c r="AS19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT19" t="n">
         <v>18</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>21</v>
@@ -3904,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4002,7 +4069,7 @@
         <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
         <v>4.5</v>
@@ -4011,16 +4078,16 @@
         <v>19.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4032,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4050,10 +4117,10 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
@@ -4068,22 +4135,22 @@
         <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.278</v>
+        <v>0.257</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.435</v>
@@ -4151,34 +4218,34 @@
         <v>5.6</v>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.329</v>
+        <v>0.332</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P21" t="n">
         <v>26.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7</v>
+        <v>0.703</v>
       </c>
       <c r="R21" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
         <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="V21" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W21" t="n">
         <v>6.5</v>
@@ -4187,40 +4254,40 @@
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7</v>
+        <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4232,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
@@ -4241,25 +4308,25 @@
         <v>12</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR21" t="n">
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4277,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -4396,16 +4463,16 @@
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4444,7 +4511,7 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4584,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
@@ -4602,7 +4669,7 @@
         <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
@@ -4611,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
@@ -4620,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4775,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H25" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="J25" t="n">
-        <v>78.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.389</v>
       </c>
       <c r="O25" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P25" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
         <v>22</v>
       </c>
       <c r="V25" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X25" t="n">
         <v>4.6</v>
@@ -4918,40 +4985,40 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA25" t="n">
         <v>21.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4963,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
@@ -4972,22 +5039,22 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX25" t="n">
         <v>18</v>
@@ -4996,16 +5063,16 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -5112,25 +5179,25 @@
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -5139,10 +5206,10 @@
         <v>19</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5184,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -5315,7 +5382,7 @@
         <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5327,13 +5394,13 @@
         <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
@@ -5342,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
@@ -5366,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF28" t="n">
         <v>28</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>28</v>
@@ -5491,7 +5558,7 @@
         <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>6</v>
@@ -5515,10 +5582,10 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="I29" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L29" t="n">
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.407</v>
       </c>
       <c r="O29" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R29" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
@@ -5646,40 +5713,40 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI29" t="n">
         <v>9</v>
       </c>
-      <c r="AI29" t="n">
-        <v>8</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP29" t="n">
         <v>30</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5709,28 +5776,28 @@
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX29" t="n">
         <v>24</v>
       </c>
-      <c r="AX29" t="n">
-        <v>22</v>
-      </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>4.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5882,13 +5949,13 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
@@ -6034,10 +6101,10 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6064,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-13-2007-08</t>
+          <t>2008-01-13</t>
         </is>
       </c>
     </row>
